--- a/DND/FINAL EXCEL/Sub-Category-Debit-Total-Final-JAN.xlsx
+++ b/DND/FINAL EXCEL/Sub-Category-Debit-Total-Final-JAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GATE\DS\DND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GATE\DS\DND\FINAL EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -271,11 +271,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,6 +288,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -598,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,380 +609,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>1890</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>16155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>94287</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>57035</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>8160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>4106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>19500</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>13650</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>1400</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>7500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>3120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>6530</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>16370</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>6200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <f>2360+200</f>
         <v>2560</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>3020</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>28000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <f>1266+910</f>
         <v>2176</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>15000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>1750</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>49000</v>
       </c>
     </row>
